--- a/data/epp-14-data.xlsx
+++ b/data/epp-14-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/icann/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7A2833-C1CE-5645-89AE-666A6B382C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771F4ED2-EAD7-5F4E-98DE-33825E5AC6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="2340" windowWidth="35460" windowHeight="17220" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
+    <workbookView xWindow="1020" yWindow="2340" windowWidth="35460" windowHeight="17220" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="99">
   <si>
     <t>errorCode</t>
   </si>
@@ -298,6 +298,93 @@
   </si>
   <si>
     <t>attributes</t>
+  </si>
+  <si>
+    <t>keyTag</t>
+  </si>
+  <si>
+    <t>digestType</t>
+  </si>
+  <si>
+    <t>digest</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>pubKey</t>
+  </si>
+  <si>
+    <t>keyDataAlg</t>
+  </si>
+  <si>
+    <t>dsDataAlg</t>
+  </si>
+  <si>
+    <t>DS record Key Tag (if applicable)</t>
+  </si>
+  <si>
+    <t>DS record algorithm (if applicable)</t>
+  </si>
+  <si>
+    <t>DS record digest type (if applicable)</t>
+  </si>
+  <si>
+    <t>DS record digest (if applicable)</t>
+  </si>
+  <si>
+    <t>DNSKEY record flags (if applicable)</t>
+  </si>
+  <si>
+    <t>DNSKEY record protocol (if applicable)</t>
+  </si>
+  <si>
+    <t>DNSKEY record algorithm (if applicable)</t>
+  </si>
+  <si>
+    <t>DNSKEY record public key (if applicable)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>{RANDHEX(32}</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7JCMl8WwNOyFNWF6GBuMlIdtf08Cr1bO/hToZ6xCvKcu4o5ShXBzbCgzTGJHovhoUgj9wsMA1aWA</t>
+  </si>
+  <si>
+    <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_INVALID_DNSSEC_DATA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>{RANDHEX(32})</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>this is not a DNSKEY.</t>
   </si>
 </sst>
 </file>
@@ -414,7 +501,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="26">
     <dxf>
       <font>
         <b val="0"/>
@@ -437,26 +524,186 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -769,8 +1016,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:Q33" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="B7:Q33" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:Y59" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="B7:Y59" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -787,24 +1034,40 @@
     <filterColumn colId="13" hiddenButton="1"/>
     <filterColumn colId="14" hiddenButton="1"/>
     <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
+    <filterColumn colId="21" hiddenButton="1"/>
+    <filterColumn colId="22" hiddenButton="1"/>
+    <filterColumn colId="23" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{4AE738EA-0F6E-7D4F-8E30-1F60F72D5773}" name="name" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{9D2F85A4-8ECB-0C46-BF52-02059D67DF93}" name="period" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{F674F9C4-5917-5641-A4A5-837679F19176}" name="periodUnit" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{34E04925-4A89-B94E-872A-054A44B06DAB}" name="registrant" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{2D040C66-74F7-FA40-8F80-4EFBCBB7D804}" name="adminContact" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{0171B6E3-C679-0646-B61B-94DDF6D0739F}" name="techContact" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{C8B4F55C-77A5-2B43-B03E-20E1A6AC72EC}" name="billingContact" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{E760EB62-F451-2C49-A376-7B991B84B914}" name="hostModel" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{D5A9FB71-E997-F340-BA79-F64CC55AECE4}" name="ns1" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{8EE92E73-77B7-A542-82BA-CB74FCA1CB5A}" name="ns1ipv4" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{C1C56F35-E74B-2140-B92B-289F873FF934}" name="ns1ipv6" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{8F31D634-EEAA-0141-B19B-197F1349C252}" name="ns2" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{001B761F-29C1-EE41-99B2-E2116E52D500}" name="ns2ipv4" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{FF7943E7-C72F-BB41-8084-CBEE83A6C9D2}" name="ns2ipv6" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="1"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{4AE738EA-0F6E-7D4F-8E30-1F60F72D5773}" name="name" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{9D2F85A4-8ECB-0C46-BF52-02059D67DF93}" name="period" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{F674F9C4-5917-5641-A4A5-837679F19176}" name="periodUnit" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{34E04925-4A89-B94E-872A-054A44B06DAB}" name="registrant" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{2D040C66-74F7-FA40-8F80-4EFBCBB7D804}" name="adminContact" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{0171B6E3-C679-0646-B61B-94DDF6D0739F}" name="techContact" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{C8B4F55C-77A5-2B43-B03E-20E1A6AC72EC}" name="billingContact" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{E760EB62-F451-2C49-A376-7B991B84B914}" name="hostModel" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{D5A9FB71-E997-F340-BA79-F64CC55AECE4}" name="ns1" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{8EE92E73-77B7-A542-82BA-CB74FCA1CB5A}" name="ns1ipv4" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{C1C56F35-E74B-2140-B92B-289F873FF934}" name="ns1ipv6" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{8F31D634-EEAA-0141-B19B-197F1349C252}" name="ns2" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{001B761F-29C1-EE41-99B2-E2116E52D500}" name="ns2ipv4" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{FF7943E7-C72F-BB41-8084-CBEE83A6C9D2}" name="ns2ipv6" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{84610D9D-62D8-C747-BEB0-DA340D34D421}" name="keyTag" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{54D27880-56AD-DC42-BE78-EBB1A19D2339}" name="dsDataAlg" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{4C2A616C-31AB-9948-877D-701A0692DECD}" name="digestType" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{2467371F-CDC1-0443-9301-00252404EE8B}" name="digest" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{66E3B520-5E7B-914A-A7E7-5D2A0EC1B025}" name="flags" dataDxfId="0"/>
+    <tableColumn id="23" xr3:uid="{85CBAD45-FEDA-EF41-B68C-A469EEC82B26}" name="protocol" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{7BF4016C-657D-B647-BB2B-87573194BAB3}" name="keyDataAlg" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{D26FFFA2-9A10-9943-A61D-4B69D6D32E34}" name="pubKey" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1127,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
-  <dimension ref="B2:X33"/>
+  <dimension ref="B2:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="M5" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1147,12 +1410,14 @@
     <col min="11" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="88.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="16" max="22" width="16" style="1" customWidth="1"/>
+    <col min="23" max="23" width="95" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="88.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1171,8 +1436,16 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="2:24" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+    </row>
+    <row r="3" spans="2:32" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>41</v>
       </c>
@@ -1198,8 +1471,16 @@
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1216,8 +1497,16 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="2:24" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" spans="2:32" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1236,8 +1525,16 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1254,8 +1551,16 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1299,13 +1604,37 @@
         <v>48</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:24" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1349,13 +1678,37 @@
         <v>45</v>
       </c>
       <c r="P8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="X8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1399,13 +1752,37 @@
         <v>3</v>
       </c>
       <c r="P9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="T9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,110 +1826,134 @@
         <v>46</v>
       </c>
       <c r="P10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="X11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="X12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+      <c r="X14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1" t="s">
+      <c r="X15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+      <c r="X16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1" t="s">
+      <c r="X17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="X18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1562,28 +1963,28 @@
       <c r="G19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="1" t="s">
+      <c r="X19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="G20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="1" t="s">
+      <c r="X20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="H21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1593,155 +1994,465 @@
       <c r="J21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="1" t="s">
+      <c r="X21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="1" t="s">
+      <c r="X23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="1" t="s">
+      <c r="X24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="1" t="s">
+      <c r="X25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="1" t="s">
+      <c r="X26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="1" t="s">
+      <c r="X27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K28" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Y28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="1" t="s">
+      <c r="X29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="1" t="s">
+      <c r="X30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="1" t="s">
+      <c r="X31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="1" t="s">
+      <c r="X32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:25" x14ac:dyDescent="0.2">
       <c r="L33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="1" t="s">
+      <c r="X33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="J34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="P35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="Q36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="Q37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="Q38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="Q39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="R40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="R41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="R42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="R43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="S44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="T45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="T46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="T47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="T48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="T49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="U50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="U51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="U52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="U53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="U54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="V55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="V56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="V57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="V58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="W59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B3:X3"/>
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="B5:Y5"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="B6:Y6"/>
+    <mergeCell ref="B3:AF3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/epp-14-data.xlsx
+++ b/data/epp-14-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/icann/rst-test-specs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771F4ED2-EAD7-5F4E-98DE-33825E5AC6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC3B0FB-AE3B-9242-960B-A595ED55B280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="2340" windowWidth="35460" windowHeight="17220" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -171,9 +171,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>{"XX--123." &amp; TLD}</t>
-  </si>
-  <si>
     <t>{RANDCHARS(64) &amp; "." &amp; $TLD}</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>ns1.epp-14.rst.icann</t>
   </si>
   <si>
-    <t>{"ns1." &amp; name}</t>
-  </si>
-  <si>
     <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_HOST_ATTRIBUTES_WITHOUT_GLUE</t>
   </si>
   <si>
@@ -385,6 +379,12 @@
   </si>
   <si>
     <t>this is not a DNSKEY.</t>
+  </si>
+  <si>
+    <t>{"XX--123." &amp; $TLD}</t>
+  </si>
+  <si>
+    <t>{"ns1." &amp; $name}</t>
   </si>
 </sst>
 </file>
@@ -504,6 +504,36 @@
   <dxfs count="26">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -654,36 +684,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -1058,16 +1058,16 @@
     <tableColumn id="6" xr3:uid="{8F31D634-EEAA-0141-B19B-197F1349C252}" name="ns2" dataDxfId="12"/>
     <tableColumn id="13" xr3:uid="{001B761F-29C1-EE41-99B2-E2116E52D500}" name="ns2ipv4" dataDxfId="11"/>
     <tableColumn id="14" xr3:uid="{FF7943E7-C72F-BB41-8084-CBEE83A6C9D2}" name="ns2ipv6" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{84610D9D-62D8-C747-BEB0-DA340D34D421}" name="keyTag" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{54D27880-56AD-DC42-BE78-EBB1A19D2339}" name="dsDataAlg" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{4C2A616C-31AB-9948-877D-701A0692DECD}" name="digestType" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{2467371F-CDC1-0443-9301-00252404EE8B}" name="digest" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{66E3B520-5E7B-914A-A7E7-5D2A0EC1B025}" name="flags" dataDxfId="0"/>
-    <tableColumn id="23" xr3:uid="{85CBAD45-FEDA-EF41-B68C-A469EEC82B26}" name="protocol" dataDxfId="1"/>
-    <tableColumn id="22" xr3:uid="{7BF4016C-657D-B647-BB2B-87573194BAB3}" name="keyDataAlg" dataDxfId="2"/>
-    <tableColumn id="21" xr3:uid="{D26FFFA2-9A10-9943-A61D-4B69D6D32E34}" name="pubKey" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{84610D9D-62D8-C747-BEB0-DA340D34D421}" name="keyTag" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{54D27880-56AD-DC42-BE78-EBB1A19D2339}" name="dsDataAlg" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{4C2A616C-31AB-9948-877D-701A0692DECD}" name="digestType" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{2467371F-CDC1-0443-9301-00252404EE8B}" name="digest" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{66E3B520-5E7B-914A-A7E7-5D2A0EC1B025}" name="flags" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{85CBAD45-FEDA-EF41-B68C-A469EEC82B26}" name="protocol" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{7BF4016C-657D-B647-BB2B-87573194BAB3}" name="keyDataAlg" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{D26FFFA2-9A10-9943-A61D-4B69D6D32E34}" name="pubKey" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1392,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
   <dimension ref="B2:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M5" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="3" spans="2:32" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1574,58 +1574,58 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="P7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="V7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>5</v>
@@ -1648,58 +1648,58 @@
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="P8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>4</v>
@@ -1805,49 +1805,49 @@
         <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="V10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>2</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>1</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>1</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>1</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>1</v>
@@ -1944,13 +1944,13 @@
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="3:25" x14ac:dyDescent="0.2">
@@ -1958,7 +1958,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>14</v>
@@ -1967,12 +1967,12 @@
         <v>1</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="G20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>14</v>
@@ -1981,29 +1981,29 @@
         <v>1</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="H21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>2</v>
@@ -2014,65 +2014,65 @@
     </row>
     <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X28" s="1" t="s">
         <v>2</v>
@@ -2083,71 +2083,71 @@
     </row>
     <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L32" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="10:25" x14ac:dyDescent="0.2">
       <c r="L33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="10:25" x14ac:dyDescent="0.2">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="10:25" x14ac:dyDescent="0.2">
@@ -2155,121 +2155,121 @@
         <v>14</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="10:25" x14ac:dyDescent="0.2">
       <c r="Q36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="10:25" x14ac:dyDescent="0.2">
       <c r="Q37" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="10:25" x14ac:dyDescent="0.2">
       <c r="Q38" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="10:25" x14ac:dyDescent="0.2">
       <c r="Q39" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="10:25" x14ac:dyDescent="0.2">
       <c r="R40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="10:25" x14ac:dyDescent="0.2">
       <c r="R41" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="10:25" x14ac:dyDescent="0.2">
       <c r="R42" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="10:25" x14ac:dyDescent="0.2">
       <c r="R43" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="10:25" x14ac:dyDescent="0.2">
       <c r="S44" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="10:25" x14ac:dyDescent="0.2">
@@ -2280,54 +2280,54 @@
         <v>1</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="10:25" x14ac:dyDescent="0.2">
       <c r="T46" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="10:25" x14ac:dyDescent="0.2">
       <c r="T47" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="10:25" x14ac:dyDescent="0.2">
       <c r="T48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="20:25" x14ac:dyDescent="0.2">
       <c r="T49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="20:25" x14ac:dyDescent="0.2">
@@ -2338,112 +2338,112 @@
         <v>1</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="20:25" x14ac:dyDescent="0.2">
       <c r="U51" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="20:25" x14ac:dyDescent="0.2">
       <c r="U52" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="20:25" x14ac:dyDescent="0.2">
       <c r="U53" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="20:25" x14ac:dyDescent="0.2">
       <c r="U54" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V56" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V57" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V58" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="20:25" x14ac:dyDescent="0.2">
       <c r="W59" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/epp-14-data.xlsx
+++ b/data/epp-14-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC3B0FB-AE3B-9242-960B-A595ED55B280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB46788-132A-AA4D-A6C1-E0BC46DA680C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2340" windowWidth="35460" windowHeight="17220" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="99">
   <si>
     <t>errorCode</t>
   </si>
@@ -1016,8 +1016,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:Y59" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="B7:Y59" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:Y60" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="B7:Y60" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1390,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
-  <dimension ref="B2:AF59"/>
+  <dimension ref="B2:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="J5" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1960,9 +1960,6 @@
       <c r="F19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="X19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1971,12 +1968,12 @@
       </c>
     </row>
     <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="X20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1985,47 +1982,50 @@
       </c>
     </row>
     <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="X21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="1" t="s">
+      <c r="X22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="K22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>1</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>1</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>1</v>
@@ -2069,32 +2069,32 @@
     </row>
     <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="K29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="X29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Y29" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="L29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>1</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>1</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="33" spans="10:25" x14ac:dyDescent="0.2">
       <c r="L33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>1</v>
@@ -2137,36 +2137,36 @@
       </c>
     </row>
     <row r="34" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="J34" s="1" t="s">
+      <c r="L34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="J35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="P35" s="1" t="s">
+      <c r="X35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="P36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="Q36" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="Q36" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="X36" s="1" t="s">
         <v>1</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="37" spans="10:25" x14ac:dyDescent="0.2">
       <c r="Q37" s="1" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>1</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="38" spans="10:25" x14ac:dyDescent="0.2">
       <c r="Q38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>1</v>
@@ -2199,21 +2199,21 @@
     </row>
     <row r="39" spans="10:25" x14ac:dyDescent="0.2">
       <c r="Q39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="Q40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="R40" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="R40" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>1</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="41" spans="10:25" x14ac:dyDescent="0.2">
       <c r="R41" s="1" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>1</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="42" spans="10:25" x14ac:dyDescent="0.2">
       <c r="R42" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>1</v>
@@ -2246,35 +2246,35 @@
     </row>
     <row r="43" spans="10:25" x14ac:dyDescent="0.2">
       <c r="R43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="R44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="S44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="S44" s="1" t="s">
+      <c r="X44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="10:25" x14ac:dyDescent="0.2">
+      <c r="S45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="T45" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="X45" s="1" t="s">
         <v>1</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="46" spans="10:25" x14ac:dyDescent="0.2">
       <c r="T46" s="1" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="X46" s="1" t="s">
         <v>1</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="47" spans="10:25" x14ac:dyDescent="0.2">
       <c r="T47" s="1" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>1</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="48" spans="10:25" x14ac:dyDescent="0.2">
       <c r="T48" s="1" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="X48" s="1" t="s">
         <v>1</v>
@@ -2318,21 +2318,21 @@
     </row>
     <row r="49" spans="20:25" x14ac:dyDescent="0.2">
       <c r="T49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="T50" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="U49" s="1" t="s">
+      <c r="U50" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="X49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="U50" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>1</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="51" spans="20:25" x14ac:dyDescent="0.2">
       <c r="U51" s="1" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="X51" s="1" t="s">
         <v>1</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="52" spans="20:25" x14ac:dyDescent="0.2">
       <c r="U52" s="1" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>1</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="53" spans="20:25" x14ac:dyDescent="0.2">
       <c r="U53" s="1" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>1</v>
@@ -2376,21 +2376,21 @@
     </row>
     <row r="54" spans="20:25" x14ac:dyDescent="0.2">
       <c r="U54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="U55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="V54" s="1" t="s">
+      <c r="V55" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="V55" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="X55" s="1" t="s">
         <v>1</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="56" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V56" s="1" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="X56" s="1" t="s">
         <v>1</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="57" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
         <v>1</v>
@@ -2423,26 +2423,37 @@
     </row>
     <row r="58" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="V59" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="W58" s="1" t="s">
+      <c r="W59" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y58" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="W59" s="1" t="s">
+      <c r="X59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="W60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="1" t="s">
+      <c r="X60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="1" t="s">
         <v>90</v>
       </c>
     </row>

--- a/data/epp-14-data.xlsx
+++ b/data/epp-14-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB46788-132A-AA4D-A6C1-E0BC46DA680C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0DC47A-3B66-7E47-9E91-F12DA54B5E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="98">
   <si>
     <t>errorCode</t>
   </si>
@@ -348,9 +348,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>{RANDHEX(32}</t>
-  </si>
-  <si>
     <t>257</t>
   </si>
   <si>
@@ -372,19 +369,19 @@
     <t>255</t>
   </si>
   <si>
-    <t>{RANDHEX(32})</t>
-  </si>
-  <si>
     <t>256</t>
   </si>
   <si>
     <t>this is not a DNSKEY.</t>
   </si>
   <si>
-    <t>{"XX--123." &amp; $TLD}</t>
-  </si>
-  <si>
     <t>{"ns1." &amp; $name}</t>
+  </si>
+  <si>
+    <t>{"XX--" &amp; RANDCHARS(59) &amp; "." &amp; $TLD}</t>
+  </si>
+  <si>
+    <t>{RANDHEX(32)}</t>
   </si>
 </sst>
 </file>
@@ -1392,14 +1389,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
   <dimension ref="B2:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J5" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="K5" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1835,19 +1832,19 @@
         <v>85</v>
       </c>
       <c r="S10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>84</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>2</v>
@@ -1869,7 +1866,7 @@
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>1</v>
@@ -2003,7 +2000,7 @@
         <v>67</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>1</v>
@@ -2158,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="10:25" x14ac:dyDescent="0.2">
@@ -2172,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="10:25" x14ac:dyDescent="0.2">
@@ -2183,29 +2180,29 @@
         <v>1</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="10:25" x14ac:dyDescent="0.2">
       <c r="Q38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="10:25" x14ac:dyDescent="0.2">
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="10:25" x14ac:dyDescent="0.2">
@@ -2219,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="10:25" x14ac:dyDescent="0.2">
@@ -2230,29 +2227,29 @@
         <v>1</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="10:25" x14ac:dyDescent="0.2">
       <c r="R42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="10:25" x14ac:dyDescent="0.2">
       <c r="R43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="10:25" x14ac:dyDescent="0.2">
@@ -2266,12 +2263,12 @@
         <v>1</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="10:25" x14ac:dyDescent="0.2">
       <c r="S45" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="T45" s="1" t="s">
         <v>45</v>
@@ -2280,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="10:25" x14ac:dyDescent="0.2">
@@ -2291,18 +2288,18 @@
         <v>1</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="10:25" x14ac:dyDescent="0.2">
       <c r="T47" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="10:25" x14ac:dyDescent="0.2">
@@ -2313,23 +2310,23 @@
         <v>1</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="20:25" x14ac:dyDescent="0.2">
       <c r="T49" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="20:25" x14ac:dyDescent="0.2">
       <c r="T50" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>45</v>
@@ -2338,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="20:25" x14ac:dyDescent="0.2">
@@ -2349,18 +2346,18 @@
         <v>1</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="20:25" x14ac:dyDescent="0.2">
       <c r="U52" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="20:25" x14ac:dyDescent="0.2">
@@ -2371,23 +2368,23 @@
         <v>1</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="20:25" x14ac:dyDescent="0.2">
       <c r="U54" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="20:25" x14ac:dyDescent="0.2">
       <c r="U55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>45</v>
@@ -2396,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="20:25" x14ac:dyDescent="0.2">
@@ -2407,29 +2404,29 @@
         <v>1</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V57" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="20:25" x14ac:dyDescent="0.2">
@@ -2443,18 +2440,18 @@
         <v>1</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="20:25" x14ac:dyDescent="0.2">
       <c r="W60" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="X60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/epp-14-data.xlsx
+++ b/data/epp-14-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0DC47A-3B66-7E47-9E91-F12DA54B5E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6B57E8-C6CF-6242-8D7A-BECBCD866D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
+    <workbookView xWindow="4640" yWindow="540" windowWidth="28800" windowHeight="20700" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="99">
   <si>
     <t>errorCode</t>
   </si>
@@ -171,9 +171,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>{RANDCHARS(64) &amp; "." &amp; $TLD}</t>
-  </si>
-  <si>
     <t>-1</t>
   </si>
   <si>
@@ -202,186 +199,191 @@
   </si>
   <si>
     <t>{RANDCHARS(16)}</t>
+  </si>
+  <si>
+    <t>ns1ipv4</t>
+  </si>
+  <si>
+    <t>ns1ipv6</t>
+  </si>
+  <si>
+    <t>IPv4 address (if host attributes)</t>
+  </si>
+  <si>
+    <t>IPv6 address (if host attributes)</t>
+  </si>
+  <si>
+    <t>{EMPTY}</t>
+  </si>
+  <si>
+    <t>ns2ipv4</t>
+  </si>
+  <si>
+    <t>ns2ipv6</t>
+  </si>
+  <si>
+    <t>ns2.epp-14.rst.icann</t>
+  </si>
+  <si>
+    <t>ns1.epp-14.rst.icann</t>
+  </si>
+  <si>
+    <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_HOST_ATTRIBUTES_WITHOUT_GLUE</t>
+  </si>
+  <si>
+    <t>Nameserver name (object will be created if needed)</t>
+  </si>
+  <si>
+    <t>192.0.2.1</t>
+  </si>
+  <si>
+    <t>2001:DB8::53:1</t>
+  </si>
+  <si>
+    <t>192.0.2</t>
+  </si>
+  <si>
+    <t>a.b.c.d</t>
+  </si>
+  <si>
+    <t>256.1.1.1</t>
+  </si>
+  <si>
+    <t>1.2.3.4.5</t>
+  </si>
+  <si>
+    <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_HOST_ATTRIBUTES_WITH_INVALID_GLUE</t>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>::</t>
+  </si>
+  <si>
+    <t>::1</t>
+  </si>
+  <si>
+    <t>::X</t>
+  </si>
+  <si>
+    <t>NOT::HEX::</t>
+  </si>
+  <si>
+    <t>hostModel</t>
+  </si>
+  <si>
+    <t>Host model (row will be skipped if it does not match the input parameter)</t>
+  </si>
+  <si>
+    <t>either</t>
+  </si>
+  <si>
+    <t>attributes</t>
+  </si>
+  <si>
+    <t>keyTag</t>
+  </si>
+  <si>
+    <t>digestType</t>
+  </si>
+  <si>
+    <t>digest</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>pubKey</t>
+  </si>
+  <si>
+    <t>keyDataAlg</t>
+  </si>
+  <si>
+    <t>dsDataAlg</t>
+  </si>
+  <si>
+    <t>DS record Key Tag (if applicable)</t>
+  </si>
+  <si>
+    <t>DS record algorithm (if applicable)</t>
+  </si>
+  <si>
+    <t>DS record digest type (if applicable)</t>
+  </si>
+  <si>
+    <t>DS record digest (if applicable)</t>
+  </si>
+  <si>
+    <t>DNSKEY record flags (if applicable)</t>
+  </si>
+  <si>
+    <t>DNSKEY record protocol (if applicable)</t>
+  </si>
+  <si>
+    <t>DNSKEY record algorithm (if applicable)</t>
+  </si>
+  <si>
+    <t>DNSKEY record public key (if applicable)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7JCMl8WwNOyFNWF6GBuMlIdtf08Cr1bO/hToZ6xCvKcu4o5ShXBzbCgzTGJHovhoUgj9wsMA1aWA</t>
+  </si>
+  <si>
+    <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_INVALID_DNSSEC_DATA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>this is not a DNSKEY.</t>
+  </si>
+  <si>
+    <t>{"ns1." &amp; $name}</t>
+  </si>
+  <si>
+    <t>{RANDHEX(32)}</t>
+  </si>
+  <si>
+    <t>{"rst-epp-14-" &amp; RANDCHARS(52) &amp; "." &amp; $TLD}</t>
+  </si>
+  <si>
+    <t>{"rst-epp-14-" &amp; RANDCHARS(53) &amp; "." &amp; $TLD}</t>
+  </si>
+  <si>
+    <t>{"xx--rst-epp-14-" &amp; RANDCHARS(48) &amp; "." &amp; $TLD}</t>
   </si>
   <si>
     <t>* Values in {parentheses} are not literal values, they indicate that an appropriate value should be computed.
     * A value of `{EMPTY}` indicates an empty string.
-    * A value of `{AUTO}` means a pseudo-random value generated by a faker library that is syntactically correct as per the XML schema in RFC 5733.
     * `RANDCHARS(n)` means `n` randomly-chosen characters from the set `A-Z, a-z, 0-9`.
     * `&amp;` indicates concatenation.
 * An EPP command passes if the `code` attribute of the `&lt;result&gt;` element in the response is less than or equal to 1999.
 * If the EPP server implements RFC 9154, then the `pw` field must be empty.</t>
-  </si>
-  <si>
-    <t>ns1ipv4</t>
-  </si>
-  <si>
-    <t>ns1ipv6</t>
-  </si>
-  <si>
-    <t>IPv4 address (if host attributes)</t>
-  </si>
-  <si>
-    <t>IPv6 address (if host attributes)</t>
-  </si>
-  <si>
-    <t>{EMPTY}</t>
-  </si>
-  <si>
-    <t>ns2ipv4</t>
-  </si>
-  <si>
-    <t>ns2ipv6</t>
-  </si>
-  <si>
-    <t>ns2.epp-14.rst.icann</t>
-  </si>
-  <si>
-    <t>ns1.epp-14.rst.icann</t>
-  </si>
-  <si>
-    <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_HOST_ATTRIBUTES_WITHOUT_GLUE</t>
-  </si>
-  <si>
-    <t>Nameserver name (object will be created if needed)</t>
-  </si>
-  <si>
-    <t>192.0.2.1</t>
-  </si>
-  <si>
-    <t>2001:DB8::53:1</t>
-  </si>
-  <si>
-    <t>192.0.2</t>
-  </si>
-  <si>
-    <t>a.b.c.d</t>
-  </si>
-  <si>
-    <t>256.1.1.1</t>
-  </si>
-  <si>
-    <t>1.2.3.4.5</t>
-  </si>
-  <si>
-    <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_HOST_ATTRIBUTES_WITH_INVALID_GLUE</t>
-  </si>
-  <si>
-    <t>192.168.0.1</t>
-  </si>
-  <si>
-    <t>::</t>
-  </si>
-  <si>
-    <t>::1</t>
-  </si>
-  <si>
-    <t>::X</t>
-  </si>
-  <si>
-    <t>NOT::HEX::</t>
-  </si>
-  <si>
-    <t>hostModel</t>
-  </si>
-  <si>
-    <t>Host model (row will be skipped if it does not match the input parameter)</t>
-  </si>
-  <si>
-    <t>either</t>
-  </si>
-  <si>
-    <t>attributes</t>
-  </si>
-  <si>
-    <t>keyTag</t>
-  </si>
-  <si>
-    <t>digestType</t>
-  </si>
-  <si>
-    <t>digest</t>
-  </si>
-  <si>
-    <t>flags</t>
-  </si>
-  <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>pubKey</t>
-  </si>
-  <si>
-    <t>keyDataAlg</t>
-  </si>
-  <si>
-    <t>dsDataAlg</t>
-  </si>
-  <si>
-    <t>DS record Key Tag (if applicable)</t>
-  </si>
-  <si>
-    <t>DS record algorithm (if applicable)</t>
-  </si>
-  <si>
-    <t>DS record digest type (if applicable)</t>
-  </si>
-  <si>
-    <t>DS record digest (if applicable)</t>
-  </si>
-  <si>
-    <t>DNSKEY record flags (if applicable)</t>
-  </si>
-  <si>
-    <t>DNSKEY record protocol (if applicable)</t>
-  </si>
-  <si>
-    <t>DNSKEY record algorithm (if applicable)</t>
-  </si>
-  <si>
-    <t>DNSKEY record public key (if applicable)</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>7JCMl8WwNOyFNWF6GBuMlIdtf08Cr1bO/hToZ6xCvKcu4o5ShXBzbCgzTGJHovhoUgj9wsMA1aWA</t>
-  </si>
-  <si>
-    <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_INVALID_DNSSEC_DATA</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>this is not a DNSKEY.</t>
-  </si>
-  <si>
-    <t>{"ns1." &amp; $name}</t>
-  </si>
-  <si>
-    <t>{"XX--" &amp; RANDCHARS(59) &amp; "." &amp; $TLD}</t>
-  </si>
-  <si>
-    <t>{RANDHEX(32)}</t>
   </si>
 </sst>
 </file>
@@ -1389,14 +1391,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
   <dimension ref="B2:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K5" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1444,7 +1446,7 @@
     </row>
     <row r="3" spans="2:32" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1571,58 +1573,58 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="V7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>5</v>
@@ -1645,58 +1647,58 @@
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>4</v>
@@ -1781,7 +1783,7 @@
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -1802,49 +1804,49 @@
         <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="T10" s="1" t="s">
+      <c r="V10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>2</v>
@@ -1855,7 +1857,7 @@
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>1</v>
@@ -1866,7 +1868,7 @@
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>1</v>
@@ -1877,7 +1879,7 @@
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -1902,7 +1904,7 @@
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>1</v>
@@ -1913,7 +1915,7 @@
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>1</v>
@@ -1941,13 +1943,13 @@
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="3:25" x14ac:dyDescent="0.2">
@@ -1955,13 +1957,13 @@
         <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="3:25" x14ac:dyDescent="0.2">
@@ -1969,13 +1971,13 @@
         <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="3:25" x14ac:dyDescent="0.2">
@@ -1983,13 +1985,13 @@
         <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="3:25" x14ac:dyDescent="0.2">
@@ -1997,21 +1999,21 @@
         <v>14</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>2</v>
@@ -2022,65 +2024,65 @@
     </row>
     <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="K29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>2</v>
@@ -2091,71 +2093,71 @@
     </row>
     <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="10:25" x14ac:dyDescent="0.2">
       <c r="L33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="10:25" x14ac:dyDescent="0.2">
       <c r="L34" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="10:25" x14ac:dyDescent="0.2">
       <c r="J35" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="10:25" x14ac:dyDescent="0.2">
@@ -2163,121 +2165,121 @@
         <v>14</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="10:25" x14ac:dyDescent="0.2">
       <c r="Q37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="10:25" x14ac:dyDescent="0.2">
       <c r="Q38" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="10:25" x14ac:dyDescent="0.2">
       <c r="Q39" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="10:25" x14ac:dyDescent="0.2">
       <c r="Q40" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="10:25" x14ac:dyDescent="0.2">
       <c r="R41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="10:25" x14ac:dyDescent="0.2">
       <c r="R42" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="10:25" x14ac:dyDescent="0.2">
       <c r="R43" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="10:25" x14ac:dyDescent="0.2">
       <c r="R44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="10:25" x14ac:dyDescent="0.2">
       <c r="S45" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X45" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="10:25" x14ac:dyDescent="0.2">
@@ -2288,54 +2290,54 @@
         <v>1</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="10:25" x14ac:dyDescent="0.2">
       <c r="T47" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="10:25" x14ac:dyDescent="0.2">
       <c r="T48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="20:25" x14ac:dyDescent="0.2">
       <c r="T49" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="20:25" x14ac:dyDescent="0.2">
       <c r="T50" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="20:25" x14ac:dyDescent="0.2">
@@ -2346,112 +2348,112 @@
         <v>1</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="20:25" x14ac:dyDescent="0.2">
       <c r="U52" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="20:25" x14ac:dyDescent="0.2">
       <c r="U53" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="20:25" x14ac:dyDescent="0.2">
       <c r="U54" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="20:25" x14ac:dyDescent="0.2">
       <c r="U55" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V56" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V57" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V58" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V59" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="20:25" x14ac:dyDescent="0.2">
       <c r="W60" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/epp-14-data.xlsx
+++ b/data/epp-14-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6B57E8-C6CF-6242-8D7A-BECBCD866D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CAE70A-71D4-224B-99BC-511C81387A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="540" windowWidth="28800" windowHeight="20700" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="98">
   <si>
     <t>errorCode</t>
   </si>
@@ -177,27 +177,6 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_NON_EXISTENT_CONTACT_OBJECT</t>
-  </si>
-  <si>
-    <t>adminContact</t>
-  </si>
-  <si>
-    <t>techContact</t>
-  </si>
-  <si>
-    <t>billingContact</t>
-  </si>
-  <si>
-    <t>Admin Contact ID (if applicable)</t>
-  </si>
-  <si>
-    <t>Tech Contact ID (if applicable)</t>
-  </si>
-  <si>
-    <t>Billing Contact ID (if applicable)</t>
-  </si>
-  <si>
     <t>{RANDCHARS(16)}</t>
   </si>
   <si>
@@ -271,9 +250,6 @@
   </si>
   <si>
     <t>hostModel</t>
-  </si>
-  <si>
-    <t>Host model (row will be skipped if it does not match the input parameter)</t>
   </si>
   <si>
     <t>either</t>
@@ -384,6 +360,27 @@
     * `&amp;` indicates concatenation.
 * An EPP command passes if the `code` attribute of the `&lt;result&gt;` element in the response is less than or equal to 1999.
 * If the EPP server implements RFC 9154, then the `pw` field must be empty.</t>
+  </si>
+  <si>
+    <t>dataModel</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_MISSING_REGISTRANT</t>
+  </si>
+  <si>
+    <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_NON_EXISTENT_REGISTRANT</t>
+  </si>
+  <si>
+    <t>Host model (row will be skipped if the value does not match the epp.hostModel input parameter)</t>
+  </si>
+  <si>
+    <t>Server data model (row will be skipped if it the value does not match the general.registryDataModel input parameter or either the epp.clid01DataModel or epp.clid02DataModel input parameters</t>
   </si>
 </sst>
 </file>
@@ -500,14 +497,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="24">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -533,56 +535,11 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -1015,8 +972,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:Y60" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="B7:Y60" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:W58" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="B7:W58" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1039,34 +996,30 @@
     <filterColumn colId="19" hiddenButton="1"/>
     <filterColumn colId="20" hiddenButton="1"/>
     <filterColumn colId="21" hiddenButton="1"/>
-    <filterColumn colId="22" hiddenButton="1"/>
-    <filterColumn colId="23" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{4AE738EA-0F6E-7D4F-8E30-1F60F72D5773}" name="name" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{9D2F85A4-8ECB-0C46-BF52-02059D67DF93}" name="period" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{F674F9C4-5917-5641-A4A5-837679F19176}" name="periodUnit" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{34E04925-4A89-B94E-872A-054A44B06DAB}" name="registrant" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{2D040C66-74F7-FA40-8F80-4EFBCBB7D804}" name="adminContact" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{0171B6E3-C679-0646-B61B-94DDF6D0739F}" name="techContact" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{C8B4F55C-77A5-2B43-B03E-20E1A6AC72EC}" name="billingContact" dataDxfId="17"/>
-    <tableColumn id="17" xr3:uid="{E760EB62-F451-2C49-A376-7B991B84B914}" name="hostModel" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{D5A9FB71-E997-F340-BA79-F64CC55AECE4}" name="ns1" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{8EE92E73-77B7-A542-82BA-CB74FCA1CB5A}" name="ns1ipv4" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{C1C56F35-E74B-2140-B92B-289F873FF934}" name="ns1ipv6" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{8F31D634-EEAA-0141-B19B-197F1349C252}" name="ns2" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{001B761F-29C1-EE41-99B2-E2116E52D500}" name="ns2ipv4" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{FF7943E7-C72F-BB41-8084-CBEE83A6C9D2}" name="ns2ipv6" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{84610D9D-62D8-C747-BEB0-DA340D34D421}" name="keyTag" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{54D27880-56AD-DC42-BE78-EBB1A19D2339}" name="dsDataAlg" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{4C2A616C-31AB-9948-877D-701A0692DECD}" name="digestType" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{2467371F-CDC1-0443-9301-00252404EE8B}" name="digest" dataDxfId="6"/>
-    <tableColumn id="24" xr3:uid="{66E3B520-5E7B-914A-A7E7-5D2A0EC1B025}" name="flags" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{85CBAD45-FEDA-EF41-B68C-A469EEC82B26}" name="protocol" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{7BF4016C-657D-B647-BB2B-87573194BAB3}" name="keyDataAlg" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{D26FFFA2-9A10-9943-A61D-4B69D6D32E34}" name="pubKey" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="0"/>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{4AE738EA-0F6E-7D4F-8E30-1F60F72D5773}" name="name" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{9D2F85A4-8ECB-0C46-BF52-02059D67DF93}" name="period" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{F674F9C4-5917-5641-A4A5-837679F19176}" name="periodUnit" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{290FD370-EDF0-6446-9EB7-23A938BC4FA1}" name="dataModel" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{34E04925-4A89-B94E-872A-054A44B06DAB}" name="registrant" dataDxfId="18"/>
+    <tableColumn id="17" xr3:uid="{E760EB62-F451-2C49-A376-7B991B84B914}" name="hostModel" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{D5A9FB71-E997-F340-BA79-F64CC55AECE4}" name="ns1" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{8EE92E73-77B7-A542-82BA-CB74FCA1CB5A}" name="ns1ipv4" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{C1C56F35-E74B-2140-B92B-289F873FF934}" name="ns1ipv6" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{8F31D634-EEAA-0141-B19B-197F1349C252}" name="ns2" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{001B761F-29C1-EE41-99B2-E2116E52D500}" name="ns2ipv4" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{FF7943E7-C72F-BB41-8084-CBEE83A6C9D2}" name="ns2ipv6" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{84610D9D-62D8-C747-BEB0-DA340D34D421}" name="keyTag" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{54D27880-56AD-DC42-BE78-EBB1A19D2339}" name="dsDataAlg" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{4C2A616C-31AB-9948-877D-701A0692DECD}" name="digestType" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{2467371F-CDC1-0443-9301-00252404EE8B}" name="digest" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{66E3B520-5E7B-914A-A7E7-5D2A0EC1B025}" name="flags" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{85CBAD45-FEDA-EF41-B68C-A469EEC82B26}" name="protocol" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{7BF4016C-657D-B647-BB2B-87573194BAB3}" name="keyDataAlg" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{D26FFFA2-9A10-9943-A61D-4B69D6D32E34}" name="pubKey" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1389,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
-  <dimension ref="B2:AF60"/>
+  <dimension ref="B2:AD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Y4"/>
+    <sheetView tabSelected="1" topLeftCell="Q3" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1400,23 +1353,21 @@
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="22" width="16" style="1" customWidth="1"/>
-    <col min="23" max="23" width="95" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="88.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="16" style="1" customWidth="1"/>
+    <col min="21" max="21" width="95" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="88.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:30" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1441,12 +1392,10 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-    </row>
-    <row r="3" spans="2:32" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:30" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1476,10 +1425,8 @@
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-    </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1502,10 +1449,8 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-    </row>
-    <row r="5" spans="2:32" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:30" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1530,10 +1475,8 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-    </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1556,10 +1499,8 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1570,70 +1511,64 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="T7" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:32" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:30" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1644,70 +1579,64 @@
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1745,45 +1674,39 @@
         <v>3</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="W9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -1792,677 +1715,646 @@
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="1" t="s">
+      <c r="V14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="1" t="s">
+      <c r="V15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="1" t="s">
+      <c r="V16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="1" t="s">
+      <c r="V17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="V18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="F19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="G21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="J28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="J29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="J30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="J31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="J32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="N34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="H22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="K23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="K24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="K25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="K26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="K27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="K28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="K29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="L30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="L31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="L32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="L33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="L34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="J35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="P36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="Q37" s="1" t="s">
+      <c r="O34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="O35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="X37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="Q38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="Q39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="Q40" s="1" t="s">
+      <c r="V35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="O36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="O37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="O38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="P39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="P40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="P41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="R41" s="1" t="s">
+      <c r="V41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="P42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="Q43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="R44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="R45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="R46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="X41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="R42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="R43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="X43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="R44" s="1" t="s">
+      <c r="V46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="R47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="R48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="S44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="S45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="T46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="T47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="10:25" x14ac:dyDescent="0.2">
-      <c r="T48" s="1" t="s">
+      <c r="V50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="X48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="T49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="T50" s="1" t="s">
+      <c r="V51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="T54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="T55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="T56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="T57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="U58" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="U50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y50" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="U51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="U52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y52" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="U53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="U54" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="U55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y55" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="V56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y56" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="V57" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V58" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y58" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="V59" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="W60" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="1" t="s">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="B5:Y5"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="B6:Y6"/>
-    <mergeCell ref="B3:AF3"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B5:W5"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="B6:W6"/>
+    <mergeCell ref="B3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/epp-14-data.xlsx
+++ b/data/epp-14-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CAE70A-71D4-224B-99BC-511C81387A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FFD449-4AC5-A046-A857-D9FC1938A1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="98">
   <si>
     <t>errorCode</t>
   </si>
@@ -135,9 +135,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>Domain name</t>
-  </si>
-  <si>
     <t>Registration period</t>
   </si>
   <si>
@@ -345,42 +342,47 @@
     <t>{RANDHEX(32)}</t>
   </si>
   <si>
-    <t>{"rst-epp-14-" &amp; RANDCHARS(52) &amp; "." &amp; $TLD}</t>
-  </si>
-  <si>
-    <t>{"rst-epp-14-" &amp; RANDCHARS(53) &amp; "." &amp; $TLD}</t>
-  </si>
-  <si>
-    <t>{"xx--rst-epp-14-" &amp; RANDCHARS(48) &amp; "." &amp; $TLD}</t>
+    <t>dataModel</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_MISSING_REGISTRANT</t>
+  </si>
+  <si>
+    <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_NON_EXISTENT_REGISTRANT</t>
+  </si>
+  <si>
+    <t>Host model (row will be skipped if the value does not match the epp.hostModel input parameter)</t>
+  </si>
+  <si>
+    <t>Server data model (row will be skipped if it the value does not match the general.registryDataModel input parameter or either the epp.clid01DataModel or epp.clid02DataModel input parameters</t>
+  </si>
+  <si>
+    <t>{$PREFIX &amp; RANDCHARS(18) &amp; "." &amp; $TLD}</t>
+  </si>
+  <si>
+    <t>{$PREFIX &amp; RANDCHARS(64) &amp; "." &amp; $TLD}</t>
+  </si>
+  <si>
+    <t>{"xx--" &amp; RANDASCII(18) &amp; "." &amp; $TLD}</t>
   </si>
   <si>
     <t>* Values in {parentheses} are not literal values, they indicate that an appropriate value should be computed.
     * A value of `{EMPTY}` indicates an empty string.
-    * `RANDCHARS(n)` means `n` randomly-chosen characters from the set `A-Z, a-z, 0-9`.
+    * `RANDCHARS(n)` means `n` randomly-chosen characters from the set `A-Z, a-z, 0-9` (or the `eppSafeCodePoints` property of a corresponding IDN table, if the TLD's `idnOnly` property is true).
+    * `RANDASCII(n)` means `n` randomly-chosen characters from the set `A-Z, a-z, 0-9`, irrespective of the value of the TLD's `idnOnly` property.
     * `&amp;` indicates concatenation.
+    * `$PREFIX` will be `rst-epp-14-` except when value of the TLD's `idnOnly` property is `true`, in which case it will be empty.
 * An EPP command passes if the `code` attribute of the `&lt;result&gt;` element in the response is less than or equal to 1999.
 * If the EPP server implements RFC 9154, then the `pw` field must be empty.</t>
   </si>
   <si>
-    <t>dataModel</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_MISSING_REGISTRANT</t>
-  </si>
-  <si>
-    <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_NON_EXISTENT_REGISTRANT</t>
-  </si>
-  <si>
-    <t>Host model (row will be skipped if the value does not match the epp.hostModel input parameter)</t>
-  </si>
-  <si>
-    <t>Server data model (row will be skipped if it the value does not match the general.registryDataModel input parameter or either the epp.clid01DataModel or epp.clid02DataModel input parameters</t>
+    <t>{"xn--" &amp; RANDASCII(60) &amp; "." &amp; $TLD}</t>
   </si>
 </sst>
 </file>
@@ -461,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -493,11 +495,44 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -510,36 +545,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -972,8 +977,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:W58" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="B7:W58" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:W59" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="B7:W59" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1001,25 +1006,25 @@
     <tableColumn id="1" xr3:uid="{4AE738EA-0F6E-7D4F-8E30-1F60F72D5773}" name="name" dataDxfId="21"/>
     <tableColumn id="4" xr3:uid="{9D2F85A4-8ECB-0C46-BF52-02059D67DF93}" name="period" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{F674F9C4-5917-5641-A4A5-837679F19176}" name="periodUnit" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{290FD370-EDF0-6446-9EB7-23A938BC4FA1}" name="dataModel" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{34E04925-4A89-B94E-872A-054A44B06DAB}" name="registrant" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{E760EB62-F451-2C49-A376-7B991B84B914}" name="hostModel" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{D5A9FB71-E997-F340-BA79-F64CC55AECE4}" name="ns1" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{8EE92E73-77B7-A542-82BA-CB74FCA1CB5A}" name="ns1ipv4" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{C1C56F35-E74B-2140-B92B-289F873FF934}" name="ns1ipv6" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{8F31D634-EEAA-0141-B19B-197F1349C252}" name="ns2" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{001B761F-29C1-EE41-99B2-E2116E52D500}" name="ns2ipv4" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{FF7943E7-C72F-BB41-8084-CBEE83A6C9D2}" name="ns2ipv6" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{84610D9D-62D8-C747-BEB0-DA340D34D421}" name="keyTag" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{54D27880-56AD-DC42-BE78-EBB1A19D2339}" name="dsDataAlg" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{4C2A616C-31AB-9948-877D-701A0692DECD}" name="digestType" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{2467371F-CDC1-0443-9301-00252404EE8B}" name="digest" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{66E3B520-5E7B-914A-A7E7-5D2A0EC1B025}" name="flags" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{85CBAD45-FEDA-EF41-B68C-A469EEC82B26}" name="protocol" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{7BF4016C-657D-B647-BB2B-87573194BAB3}" name="keyDataAlg" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{D26FFFA2-9A10-9943-A61D-4B69D6D32E34}" name="pubKey" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{290FD370-EDF0-6446-9EB7-23A938BC4FA1}" name="dataModel" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{34E04925-4A89-B94E-872A-054A44B06DAB}" name="registrant" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{E760EB62-F451-2C49-A376-7B991B84B914}" name="hostModel" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{D5A9FB71-E997-F340-BA79-F64CC55AECE4}" name="ns1" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{8EE92E73-77B7-A542-82BA-CB74FCA1CB5A}" name="ns1ipv4" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{C1C56F35-E74B-2140-B92B-289F873FF934}" name="ns1ipv6" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{8F31D634-EEAA-0141-B19B-197F1349C252}" name="ns2" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{001B761F-29C1-EE41-99B2-E2116E52D500}" name="ns2ipv4" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{FF7943E7-C72F-BB41-8084-CBEE83A6C9D2}" name="ns2ipv6" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{84610D9D-62D8-C747-BEB0-DA340D34D421}" name="keyTag" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{54D27880-56AD-DC42-BE78-EBB1A19D2339}" name="dsDataAlg" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{4C2A616C-31AB-9948-877D-701A0692DECD}" name="digestType" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{2467371F-CDC1-0443-9301-00252404EE8B}" name="digest" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{66E3B520-5E7B-914A-A7E7-5D2A0EC1B025}" name="flags" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{85CBAD45-FEDA-EF41-B68C-A469EEC82B26}" name="protocol" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{7BF4016C-657D-B647-BB2B-87573194BAB3}" name="keyDataAlg" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{D26FFFA2-9A10-9943-A61D-4B69D6D32E34}" name="pubKey" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1342,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
-  <dimension ref="B2:AD58"/>
+  <dimension ref="B2:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1353,18 +1358,24 @@
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="16" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="95" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="88.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="88.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:30" ht="25" x14ac:dyDescent="0.25">
@@ -1395,7 +1406,7 @@
     </row>
     <row r="3" spans="2:30" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1511,55 +1522,55 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="L7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="N7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>5</v>
@@ -1568,66 +1579,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:30" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:30" s="3" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="N8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>4</v>
@@ -1641,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>3</v>
@@ -1674,25 +1683,25 @@
         <v>3</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>3</v>
@@ -1705,8 +1714,8 @@
       </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>87</v>
+      <c r="B10" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -1715,55 +1724,55 @@
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>2</v>
@@ -1774,578 +1783,589 @@
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="V13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E20" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I21" s="1" t="s">
-        <v>43</v>
+      <c r="G21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="J28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>36</v>
+      <c r="J33" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H34" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="N34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="N35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="8:23" x14ac:dyDescent="0.2">
       <c r="O35" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="V35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="8:23" x14ac:dyDescent="0.2">
       <c r="O36" s="1" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="8:23" x14ac:dyDescent="0.2">
       <c r="O37" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="8:23" x14ac:dyDescent="0.2">
       <c r="O38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="O39" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="P39" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="8:23" x14ac:dyDescent="0.2">
       <c r="P40" s="1" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="8:23" x14ac:dyDescent="0.2">
       <c r="P41" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="8:23" x14ac:dyDescent="0.2">
       <c r="P42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="P43" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="Q43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="Q44" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="R44" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="8:23" x14ac:dyDescent="0.2">
       <c r="R45" s="1" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="8:23" x14ac:dyDescent="0.2">
       <c r="R46" s="1" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="8:23" x14ac:dyDescent="0.2">
       <c r="R47" s="1" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="V47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="8:23" x14ac:dyDescent="0.2">
       <c r="R48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="18:23" x14ac:dyDescent="0.2">
+      <c r="R49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="18:23" x14ac:dyDescent="0.2">
+      <c r="S50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="18:23" x14ac:dyDescent="0.2">
+      <c r="S51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="18:23" x14ac:dyDescent="0.2">
+      <c r="S52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="18:23" x14ac:dyDescent="0.2">
+      <c r="S53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="18:23" x14ac:dyDescent="0.2">
+      <c r="S54" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W48" s="1" t="s">
+      <c r="T54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="18:23" x14ac:dyDescent="0.2">
+      <c r="T55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="18:23" x14ac:dyDescent="0.2">
+      <c r="T56" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S50" s="1" t="s">
+      <c r="V56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="18:23" x14ac:dyDescent="0.2">
+      <c r="T57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="18:23" x14ac:dyDescent="0.2">
+      <c r="T58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="18:23" x14ac:dyDescent="0.2">
+      <c r="U59" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W51" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W53" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="T54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="T55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="T56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="T57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W57" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="U58" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W58" s="1" t="s">
-        <v>79</v>
+      <c r="V59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2358,6 +2378,9 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C10 C14:C18" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/data/epp-14-data.xlsx
+++ b/data/epp-14-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FFD449-4AC5-A046-A857-D9FC1938A1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FD6818-0FC6-144C-8670-A95F3F51BE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="99">
   <si>
     <t>errorCode</t>
   </si>
@@ -210,15 +210,6 @@
     <t>Nameserver name (object will be created if needed)</t>
   </si>
   <si>
-    <t>192.0.2.1</t>
-  </si>
-  <si>
-    <t>2001:DB8::53:1</t>
-  </si>
-  <si>
-    <t>192.0.2</t>
-  </si>
-  <si>
     <t>a.b.c.d</t>
   </si>
   <si>
@@ -229,9 +220,6 @@
   </si>
   <si>
     <t>EPP_DOMAIN_CREATE_SERVER_ACCEPTS_HOST_ATTRIBUTES_WITH_INVALID_GLUE</t>
-  </si>
-  <si>
-    <t>192.168.0.1</t>
   </si>
   <si>
     <t>::</t>
@@ -384,12 +372,27 @@
   <si>
     <t>{"xn--" &amp; RANDASCII(60) &amp; "." &amp; $TLD}</t>
   </si>
+  <si>
+    <t>208.77.190.199</t>
+  </si>
+  <si>
+    <t>208.77.190</t>
+  </si>
+  <si>
+    <t>208.77.190.200</t>
+  </si>
+  <si>
+    <t>2602:800:900e:1257::6</t>
+  </si>
+  <si>
+    <t>2602:800:900e:1257::7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -430,6 +433,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -451,12 +460,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF156082"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF156082"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -495,7 +515,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1349,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
   <dimension ref="B2:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1362,7 +1382,8 @@
     <col min="6" max="6" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -1406,7 +1427,7 @@
     </row>
     <row r="3" spans="2:30" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1522,13 +1543,13 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>19</v>
@@ -1549,28 +1570,28 @@
         <v>37</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="1" t="s">
+      <c r="T7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>5</v>
@@ -1588,13 +1609,13 @@
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>41</v>
@@ -1615,28 +1636,28 @@
         <v>34</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>4</v>
@@ -1714,8 +1735,8 @@
       </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
-        <v>93</v>
+      <c r="B10" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -1724,13 +1745,13 @@
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>39</v>
@@ -1754,25 +1775,25 @@
         <v>14</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>2</v>
@@ -1783,7 +1804,7 @@
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>1</v>
@@ -1794,7 +1815,7 @@
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>1</v>
@@ -1805,7 +1826,7 @@
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>1</v>
@@ -1816,7 +1837,7 @@
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
@@ -1880,7 +1901,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>30</v>
@@ -1889,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.2">
@@ -1900,21 +1921,21 @@
         <v>1</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>1</v>
@@ -1925,7 +1946,7 @@
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I22" s="1" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>2</v>
@@ -1935,58 +1956,58 @@
       </c>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I23" s="1" t="s">
-        <v>43</v>
+      <c r="I23" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I24" s="1" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I26" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
@@ -1994,7 +2015,7 @@
         <v>35</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>2</v>
@@ -2005,57 +2026,57 @@
     </row>
     <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="8:23" x14ac:dyDescent="0.2">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="8:23" x14ac:dyDescent="0.2">
@@ -2069,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="8:23" x14ac:dyDescent="0.2">
@@ -2083,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="8:23" x14ac:dyDescent="0.2">
@@ -2094,34 +2115,34 @@
         <v>1</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="8:23" x14ac:dyDescent="0.2">
       <c r="O37" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="8:23" x14ac:dyDescent="0.2">
       <c r="O38" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="8:23" x14ac:dyDescent="0.2">
       <c r="O39" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>35</v>
@@ -2130,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="8:23" x14ac:dyDescent="0.2">
@@ -2141,34 +2162,34 @@
         <v>1</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="8:23" x14ac:dyDescent="0.2">
       <c r="P41" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="8:23" x14ac:dyDescent="0.2">
       <c r="P42" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="8:23" x14ac:dyDescent="0.2">
       <c r="P43" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>35</v>
@@ -2177,12 +2198,12 @@
         <v>1</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="8:23" x14ac:dyDescent="0.2">
       <c r="Q44" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>35</v>
@@ -2191,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="8:23" x14ac:dyDescent="0.2">
@@ -2202,18 +2223,18 @@
         <v>1</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="8:23" x14ac:dyDescent="0.2">
       <c r="R46" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="8:23" x14ac:dyDescent="0.2">
@@ -2224,23 +2245,23 @@
         <v>1</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="8:23" x14ac:dyDescent="0.2">
       <c r="R48" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R49" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>35</v>
@@ -2249,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="18:23" x14ac:dyDescent="0.2">
@@ -2260,18 +2281,18 @@
         <v>1</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="18:23" x14ac:dyDescent="0.2">
       <c r="S51" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="V51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="18:23" x14ac:dyDescent="0.2">
@@ -2282,23 +2303,23 @@
         <v>1</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="18:23" x14ac:dyDescent="0.2">
       <c r="S53" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="18:23" x14ac:dyDescent="0.2">
       <c r="S54" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T54" s="1" t="s">
         <v>35</v>
@@ -2307,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="18:23" x14ac:dyDescent="0.2">
@@ -2318,34 +2339,34 @@
         <v>1</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="18:23" x14ac:dyDescent="0.2">
       <c r="T56" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="18:23" x14ac:dyDescent="0.2">
       <c r="T57" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="18:23" x14ac:dyDescent="0.2">
       <c r="T58" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U58" s="1" t="s">
         <v>35</v>
@@ -2354,18 +2375,18 @@
         <v>1</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="18:23" x14ac:dyDescent="0.2">
       <c r="U59" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="V59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/epp-14-data.xlsx
+++ b/data/epp-14-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FD6818-0FC6-144C-8670-A95F3F51BE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045ACB67-2F81-744F-9E0D-2A59CDAFBE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -62,52 +62,6 @@
     <t>Error code if expected result is not produced</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes for authors:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-* The name of the file (minus ".xlsx") is used as the ID of the data provider in the spec.
-* Any text in the box above is treated as Markdown and incorporated into the specs as the description for this data provider.
-* Do not change anything except the contents of the table below and the box above.
-* All cells </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MUST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> have the "Text" type.
-* Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
-* This means that all cells in the first row MUST be populated.</t>
-    </r>
-  </si>
-  <si>
     <t>EPP_UNEXPECTED_COMMAND_FAILURE</t>
   </si>
   <si>
@@ -387,12 +341,22 @@
   <si>
     <t>2602:800:900e:1257::7</t>
   </si>
+  <si>
+    <t>Notes for authors:
+* The name of the file (minus ".xlsx") is used as the ID of the data provider in the spec.
+* Any text in the box above is treated as Markdown and incorporated into the specs as the description for this data provider.
+* Do not change anything except the contents of the table below and the box above.
+* All cells MUST have the "Text" type.
+* Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
+* This means that all cells in the first row MUST be populated.
+* IP addresses must be taken from the prefixes 208.77.190.192/26 and 2602:800:900e:1257::/64 and should not be reused.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -417,13 +381,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -497,6 +454,9 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -514,9 +474,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1369,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
   <dimension ref="B2:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1400,198 +1357,198 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30" ht="25" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
     </row>
     <row r="3" spans="2:30" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-    </row>
-    <row r="5" spans="2:30" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="2:30" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="L7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="N7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>5</v>
@@ -1603,61 +1560,61 @@
     <row r="8" spans="2:30" s="3" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="N8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>4</v>
@@ -1671,7 +1628,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>3</v>
@@ -1704,25 +1661,25 @@
         <v>3</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>3</v>
@@ -1736,657 +1693,657 @@
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I23" s="11" t="s">
-        <v>97</v>
+      <c r="I23" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J29" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="8:23" x14ac:dyDescent="0.2">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="8:23" x14ac:dyDescent="0.2">
       <c r="H34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="8:23" x14ac:dyDescent="0.2">
       <c r="N35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="8:23" x14ac:dyDescent="0.2">
       <c r="O36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="8:23" x14ac:dyDescent="0.2">
       <c r="O37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="8:23" x14ac:dyDescent="0.2">
       <c r="O38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="8:23" x14ac:dyDescent="0.2">
       <c r="O39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="8:23" x14ac:dyDescent="0.2">
       <c r="P40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="8:23" x14ac:dyDescent="0.2">
       <c r="P41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="8:23" x14ac:dyDescent="0.2">
       <c r="P42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="8:23" x14ac:dyDescent="0.2">
       <c r="P43" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="8:23" x14ac:dyDescent="0.2">
       <c r="Q44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="8:23" x14ac:dyDescent="0.2">
       <c r="R45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="8:23" x14ac:dyDescent="0.2">
       <c r="R46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="8:23" x14ac:dyDescent="0.2">
       <c r="R47" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="8:23" x14ac:dyDescent="0.2">
       <c r="R48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="18:23" x14ac:dyDescent="0.2">
       <c r="S50" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V50" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="18:23" x14ac:dyDescent="0.2">
       <c r="S51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="18:23" x14ac:dyDescent="0.2">
       <c r="S52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="18:23" x14ac:dyDescent="0.2">
       <c r="S53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="18:23" x14ac:dyDescent="0.2">
       <c r="S54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="18:23" x14ac:dyDescent="0.2">
       <c r="T55" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="18:23" x14ac:dyDescent="0.2">
       <c r="T56" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="18:23" x14ac:dyDescent="0.2">
       <c r="T57" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="18:23" x14ac:dyDescent="0.2">
       <c r="T58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="18:23" x14ac:dyDescent="0.2">
       <c r="U59" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2354,7 @@
     <mergeCell ref="B6:W6"/>
     <mergeCell ref="B3:AD3"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="C10 C14:C18" numberStoredAsText="1"/>

--- a/data/epp-14-data.xlsx
+++ b/data/epp-14-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045ACB67-2F81-744F-9E0D-2A59CDAFBE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5048BE27-AAC6-694A-BBD9-0720B2C6D77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="103">
   <si>
     <t>errorCode</t>
   </si>
@@ -350,6 +350,18 @@
 * Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
 * This means that all cells in the first row MUST be populated.
 * IP addresses must be taken from the prefixes 208.77.190.192/26 and 2602:800:900e:1257::/64 and should not be reused.</t>
+  </si>
+  <si>
+    <t>secDNSInterface</t>
+  </si>
+  <si>
+    <t>Data interface (see RFC 5910, row will be skipped if the value does not match the epp.secDNSInterfaces input parameter)</t>
+  </si>
+  <si>
+    <t>dsData</t>
+  </si>
+  <si>
+    <t>keyData</t>
   </si>
 </sst>
 </file>
@@ -479,7 +491,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
     <dxf>
       <font>
         <strike val="0"/>
@@ -502,6 +514,26 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -954,8 +986,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:W59" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="B7:W59" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:X59" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="B7:X59" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -978,20 +1010,22 @@
     <filterColumn colId="19" hiddenButton="1"/>
     <filterColumn colId="20" hiddenButton="1"/>
     <filterColumn colId="21" hiddenButton="1"/>
+    <filterColumn colId="22" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{4AE738EA-0F6E-7D4F-8E30-1F60F72D5773}" name="name" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{9D2F85A4-8ECB-0C46-BF52-02059D67DF93}" name="period" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{F674F9C4-5917-5641-A4A5-837679F19176}" name="periodUnit" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{290FD370-EDF0-6446-9EB7-23A938BC4FA1}" name="dataModel" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{34E04925-4A89-B94E-872A-054A44B06DAB}" name="registrant" dataDxfId="17"/>
-    <tableColumn id="17" xr3:uid="{E760EB62-F451-2C49-A376-7B991B84B914}" name="hostModel" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{D5A9FB71-E997-F340-BA79-F64CC55AECE4}" name="ns1" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{8EE92E73-77B7-A542-82BA-CB74FCA1CB5A}" name="ns1ipv4" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{C1C56F35-E74B-2140-B92B-289F873FF934}" name="ns1ipv6" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{8F31D634-EEAA-0141-B19B-197F1349C252}" name="ns2" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{001B761F-29C1-EE41-99B2-E2116E52D500}" name="ns2ipv4" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{FF7943E7-C72F-BB41-8084-CBEE83A6C9D2}" name="ns2ipv6" dataDxfId="10"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{4AE738EA-0F6E-7D4F-8E30-1F60F72D5773}" name="name" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{9D2F85A4-8ECB-0C46-BF52-02059D67DF93}" name="period" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{F674F9C4-5917-5641-A4A5-837679F19176}" name="periodUnit" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{290FD370-EDF0-6446-9EB7-23A938BC4FA1}" name="dataModel" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{34E04925-4A89-B94E-872A-054A44B06DAB}" name="registrant" dataDxfId="18"/>
+    <tableColumn id="17" xr3:uid="{E760EB62-F451-2C49-A376-7B991B84B914}" name="hostModel" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{D5A9FB71-E997-F340-BA79-F64CC55AECE4}" name="ns1" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{8EE92E73-77B7-A542-82BA-CB74FCA1CB5A}" name="ns1ipv4" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{C1C56F35-E74B-2140-B92B-289F873FF934}" name="ns1ipv6" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{8F31D634-EEAA-0141-B19B-197F1349C252}" name="ns2" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{001B761F-29C1-EE41-99B2-E2116E52D500}" name="ns2ipv4" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{FF7943E7-C72F-BB41-8084-CBEE83A6C9D2}" name="ns2ipv6" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{D990300C-9C03-814D-B2C0-A5B615F7F5B0}" name="secDNSInterface" dataDxfId="10"/>
     <tableColumn id="20" xr3:uid="{84610D9D-62D8-C747-BEB0-DA340D34D421}" name="keyTag" dataDxfId="9"/>
     <tableColumn id="19" xr3:uid="{54D27880-56AD-DC42-BE78-EBB1A19D2339}" name="dsDataAlg" dataDxfId="8"/>
     <tableColumn id="18" xr3:uid="{4C2A616C-31AB-9948-877D-701A0692DECD}" name="digestType" dataDxfId="7"/>
@@ -1324,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
-  <dimension ref="B2:AD59"/>
+  <dimension ref="B2:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:W5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1343,20 +1377,21 @@
     <col min="10" max="10" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="95" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="88.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="95" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="88.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:31" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1381,8 +1416,9 @@
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
-    </row>
-    <row r="3" spans="2:30" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X2" s="6"/>
+    </row>
+    <row r="3" spans="2:31" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>91</v>
       </c>
@@ -1414,8 +1450,9 @@
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
       <c r="AD3" s="11"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE3" s="11"/>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1438,8 +1475,9 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-    </row>
-    <row r="5" spans="2:30" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="8"/>
+    </row>
+    <row r="5" spans="2:31" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>98</v>
       </c>
@@ -1464,8 +1502,9 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="X5" s="7"/>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1488,8 +1527,9 @@
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="X6" s="9"/>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1527,37 +1567,40 @@
         <v>36</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:30" s="3" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:31" s="3" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -1593,37 +1636,40 @@
         <v>33</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="X8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1661,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>17</v>
@@ -1670,10 +1716,10 @@
         <v>17</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>17</v>
@@ -1682,7 +1728,7 @@
         <v>17</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="V9" s="4" t="s">
         <v>3</v>
@@ -1690,8 +1736,11 @@
       <c r="W9" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="X9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>88</v>
       </c>
@@ -1729,131 +1778,134 @@
         <v>34</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1863,25 +1915,25 @@
       <c r="F19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="F20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X20" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
         <v>82</v>
       </c>
@@ -1894,465 +1946,471 @@
       <c r="H21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="I22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="I23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="I24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="I25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="I26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X26" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="I27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="I28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="J29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="J30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="J31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X31" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="J32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X32" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="8:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:24" x14ac:dyDescent="0.2">
       <c r="J33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X33" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="8:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W34" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="N35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="O35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W35" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="O36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="P36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W36" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="O37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="P37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W37" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="O38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="P38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W38" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="O39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="P39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="Q39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W39" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="P40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="Q40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="P41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="Q41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W41" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="P42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="Q42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W42" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="P43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="Q43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W43" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="Q44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="N44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R44" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="S44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W44" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="R45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="S45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W45" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="R46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="S46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W46" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="R47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="S47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W47" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="R48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="S48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W48" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="R49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="S49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S49" s="1" t="s">
+      <c r="T49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W49" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="S50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="T50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W50" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="S51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="T51" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W51" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="S52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="T52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W52" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="S53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="T53" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W53" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="S54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="T54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T54" s="1" t="s">
+      <c r="U54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W54" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="T55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="U55" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W55" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="T56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="U56" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W56" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="T57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="U57" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W57" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="T58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="U58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U58" s="1" t="s">
+      <c r="V58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W58" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="U59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="19:24" x14ac:dyDescent="0.2">
+      <c r="V59" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="W59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X59" s="1" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B5:W5"/>
-    <mergeCell ref="B4:W4"/>
-    <mergeCell ref="B6:W6"/>
-    <mergeCell ref="B3:AD3"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="B5:X5"/>
+    <mergeCell ref="B4:X4"/>
+    <mergeCell ref="B6:X6"/>
+    <mergeCell ref="B3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
